--- a/biology/Botanique/Hárslevelű/Hárslevelű.xlsx
+++ b/biology/Botanique/Hárslevelű/Hárslevelű.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A1rslevel%C5%B1</t>
+          <t>Hárslevelű</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le hárslevelű est un cépage blanc cultivé en Hongrie. Il entre dans la composition du célèbre vin de Tokay, auquel apporte souplesse et parfum épicé. Moins riche en sucre et moins acide que le furmint, l'autre cépage du Tokay, il est utilisé pour sa puissance aromatique.
